--- a/BD paper/catalogos/waveform_6-9_0.5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_6-9_0.5_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,31 @@
           <t>Estación más cercana 5</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -540,6 +565,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:18</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:19</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:20</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:26</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:43:28</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -587,6 +637,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:18</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:18</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:21</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:24</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2014-04-03T05:26:29</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -634,6 +709,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:37:55</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:37:56</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:37:57</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:38:03</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2014-04-04T01:38:05</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -681,6 +781,31 @@
           <t>PSGCX</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:49</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:49</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:52</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:56</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2014-04-11T00:01:59</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -728,6 +853,31 @@
           <t>CO05</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:22</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:24</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:29</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:29</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2015-09-26T02:51:30</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -775,6 +925,31 @@
           <t>AC07</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:40</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:40</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:49</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2015-11-27T21:00:53</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -822,6 +997,31 @@
           <t>CO04</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:11</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:11</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:16</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:17</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2017-04-23T02:36:25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -869,6 +1069,31 @@
           <t>CO04</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:34</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:34</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:39</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:40</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2017-04-24T21:38:48</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -916,6 +1141,31 @@
           <t>CO10</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:32:52</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:32:53</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:32:54</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:32:59</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2019-01-20T01:33:02</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -963,6 +1213,31 @@
           <t>TA02</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:46:40</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:46:40</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:46:44</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:46:51</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2019-12-03T08:47:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1010,6 +1285,31 @@
           <t>AC05</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:32</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:40</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:42</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:42</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:09:45</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1057,6 +1357,31 @@
           <t>AC05</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:05</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:15</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:16</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:16</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2020-09-01T04:30:18</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1104,6 +1429,31 @@
           <t>AC05</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:22</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:29</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:31</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:31</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2020-09-01T21:09:35</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1151,6 +1501,31 @@
           <t>CO02</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:02</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:03</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:04</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:04</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2020-09-06T01:17:11</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1196,6 +1571,31 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>PB04</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:35:58</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:36:04</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:36:05</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:36:08</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2020-09-11T07:36:10</t>
         </is>
       </c>
     </row>
